--- a/temp_files/comp_result.xlsx
+++ b/temp_files/comp_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,6 +791,275 @@
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>АлександрКарелин</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ВудиХаррельсон</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Победил Александр Карелин</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>круг 2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>АлександрКарелин</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ВудиХаррельсон</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ничья</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ДжаредЛето</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ДжониДепп</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ДжониДепп</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>БенАффлек</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>БиллМюррей</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>БрэдПитт</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Победил Брэд Питт</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>БрэдлиКупер</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ДжаредЛето</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ничья</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ДжейсонСтейтем</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ДжекНиколсон</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ДжимКерри</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ДжонТраволта</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ДжорджКлуни</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>КевинСпейси</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>КиануРивз</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>КонорМакгрегор</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>от 49 до 72 кг включительно</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>круг 1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Леонардоди Каприо</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>МайклДуглас</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
